--- a/data/analysis/missing_web_soc_museums/missing_web_soc_museum_pc.xlsx
+++ b/data/analysis/missing_web_soc_museums/missing_web_soc_museum_pc.xlsx
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>498</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1198,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F13">
         <v>864</v>
       </c>
       <c r="G13">
-        <v>19.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F14">
         <v>1816</v>
       </c>
       <c r="G14">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>69</v>
       </c>
       <c r="G37">
-        <v>18.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>52</v>
       </c>
       <c r="G39">
-        <v>32.7</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>26</v>
       </c>
       <c r="G42">
-        <v>11.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F43">
         <v>1533</v>
       </c>
       <c r="G43">
-        <v>21</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1911,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F44">
         <v>466</v>
       </c>
       <c r="G44">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45">
         <v>111</v>
       </c>
       <c r="G45">
-        <v>33.3</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F55">
         <v>793</v>
       </c>
       <c r="G55">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2187,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F56">
         <v>2390</v>
       </c>
       <c r="G56">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3061,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F94">
         <v>91</v>
       </c>
       <c r="G94">
-        <v>28.6</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3107,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F96">
         <v>96</v>
       </c>
       <c r="G96">
-        <v>27.1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3130,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F97">
         <v>553</v>
       </c>
       <c r="G97">
-        <v>19.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F101">
         <v>84</v>
       </c>
       <c r="G101">
-        <v>33.3</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3245,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102">
         <v>763</v>
       </c>
       <c r="G102">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106">
         <v>43</v>
       </c>
       <c r="G106">
-        <v>20.9</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F110">
         <v>102</v>
       </c>
       <c r="G110">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F112">
         <v>224</v>
       </c>
       <c r="G112">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3521,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F114">
         <v>332</v>
       </c>
       <c r="G114">
-        <v>23.5</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F244">
         <v>20</v>
       </c>
       <c r="G244">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6787,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F256">
         <v>7</v>
       </c>
       <c r="G256">
-        <v>42.9</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6902,13 +6902,13 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F261">
         <v>385</v>
       </c>
       <c r="G261">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6925,13 +6925,13 @@
         <v>0</v>
       </c>
       <c r="E262">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F262">
         <v>68</v>
       </c>
       <c r="G262">
-        <v>25</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6971,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="E264">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F264">
         <v>30</v>
       </c>
       <c r="G264">
-        <v>23.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7408,13 +7408,13 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F283">
         <v>18</v>
       </c>
       <c r="G283">
-        <v>61.1</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7454,13 +7454,13 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F285">
         <v>763</v>
       </c>
       <c r="G285">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7753,13 +7753,13 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F298">
         <v>43</v>
       </c>
       <c r="G298">
-        <v>20.9</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F317">
         <v>8</v>
       </c>
       <c r="G317">
-        <v>25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -8443,13 +8443,13 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F328">
         <v>109</v>
       </c>
       <c r="G328">
-        <v>17.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8489,13 +8489,13 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F330">
         <v>63</v>
       </c>
       <c r="G330">
-        <v>28.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8558,13 +8558,13 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F333">
         <v>32</v>
       </c>
       <c r="G333">
-        <v>40.6</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8742,13 +8742,13 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F341">
         <v>1651</v>
       </c>
       <c r="G341">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F342">
         <v>1679</v>
       </c>
       <c r="G342">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9340,13 +9340,13 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F367">
         <v>228</v>
       </c>
       <c r="G367">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -9363,13 +9363,13 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F368">
         <v>333</v>
       </c>
       <c r="G368">
-        <v>24.3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F370">
         <v>238</v>
       </c>
       <c r="G370">
-        <v>21</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -9432,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F371">
         <v>105</v>
       </c>
       <c r="G371">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -9455,13 +9455,13 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F372">
         <v>247</v>
       </c>
       <c r="G372">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -9501,13 +9501,13 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F374">
         <v>494</v>
       </c>
       <c r="G374">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9547,13 +9547,13 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F376">
         <v>420</v>
       </c>
       <c r="G376">
-        <v>20.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9570,13 +9570,13 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F377">
         <v>203</v>
       </c>
       <c r="G377">
-        <v>27.1</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9593,13 +9593,13 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F378">
         <v>228</v>
       </c>
       <c r="G378">
-        <v>25</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="379" spans="1:7">
